--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/09/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/12/2022</t>
+          <t>16/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Cementos Bio Bio Centro S.A.</t>
+          <t>Bio Bio Cementos S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -4767,7 +4767,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -4767,7 +4767,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/05/2023</t>
+          <t>23/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>24/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/Teno.xlsx
+++ b/data/Teno.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Alvaro" de Teno (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Loteo Don Sebastian de Colín (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PRC COMUNA DE TENO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Teno</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PRC COMUNA DE TENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Teno</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Joaquin Errazuriz Salinas</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Ampliación del Proyecto Modificación del Sistema de Tratamiento de Riles, Industrias Vínicas S.A. Planta Teno (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Joaquin Errazuriz Salinas</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1406729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
